--- a/Project 3.2/New_Product_Backlog_Project_3_Groep_3.xlsx
+++ b/Project 3.2/New_Product_Backlog_Project_3_Groep_3.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="5235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="5235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
+    <sheet name="SPRINT_3_BACKLOG" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$14</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -77,12 +78,119 @@
   <si>
     <t>Make a Quit button</t>
   </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Time Estimation</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>SPRINT 3 BACKLOG</t>
+  </si>
+  <si>
+    <t>As a user I want to have graphs about Parking lots and P &amp; Rs in Rotterdam so that I know how much space there is and what the information about them is.</t>
+  </si>
+  <si>
+    <t>As a user I want to have a Home Screen so that I have an orientation point.</t>
+  </si>
+  <si>
+    <t>As a user I want to have a GUI so that the app is appealing to the eye.</t>
+  </si>
+  <si>
+    <t>As a user I want to have a database so that it can contain information about Parking lots and P &amp; Rs.</t>
+  </si>
+  <si>
+    <t>As a user i want to have the option to exit the application when i want too.</t>
+  </si>
+  <si>
+    <t>As a product owner i want to have a visualisation of the application's interface.</t>
+  </si>
+  <si>
+    <t>Whole week</t>
+  </si>
+  <si>
+    <t>- Make Graphs in code
+- Put Graphs in app</t>
+  </si>
+  <si>
+    <t>- Make Home Screen
+- Put Home Screen in app</t>
+  </si>
+  <si>
+    <t>- Create database</t>
+  </si>
+  <si>
+    <t>- Put database in app</t>
+  </si>
+  <si>
+    <t>- Make a GUI from Storyboard
+- Put GUI in app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Make storyboard </t>
+  </si>
+  <si>
+    <t>- Put data in database</t>
+  </si>
+  <si>
+    <t>As a user i want to be able to go back to the previous page.</t>
+  </si>
+  <si>
+    <t>As a user i want to have data from confirmed sources in the application.</t>
+  </si>
+  <si>
+    <t>As a user I want the database to be implemented in the code so that it can give information to the app.</t>
+  </si>
+  <si>
+    <t>- Make a Back function
+- Put Back button in app</t>
+  </si>
+  <si>
+    <t>- Make a Quit function
+- Put Quit button in app</t>
+  </si>
+  <si>
+    <t>- The Graphs tell you how much parking space there is from the database.
+- The Graphs are operable.</t>
+  </si>
+  <si>
+    <t>- The Home Screen must contain 2 Graphs(one for Parking lots and the other for P &amp; Rs
+- The Home Screen is operable.</t>
+  </si>
+  <si>
+    <t>- The GUI is user friendly (let 3 people test it.)</t>
+  </si>
+  <si>
+    <t>- The database has no errors</t>
+  </si>
+  <si>
+    <t>- The code has no errors</t>
+  </si>
+  <si>
+    <t>- The storyboard must be appealing to the eye</t>
+  </si>
+  <si>
+    <t>- The data is correct
+- The queries are correct</t>
+  </si>
+  <si>
+    <t>- The Quit button is operable</t>
+  </si>
+  <si>
+    <t>- The Back button is operable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,6 +238,17 @@
       <color rgb="FF000000"/>
       <name val="Arial1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -151,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,12 +315,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -242,14 +374,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,11 +687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -552,15 +705,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -838,7 +991,7 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -30668,4 +30821,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>